--- a/data/trans_orig/Q64C-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q64C-Dificultad-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>34.01500676126186</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>33.20000637269832</v>
+        <v>33.20000637269831</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>38.89575121828471</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>39.26215204762043</v>
+        <v>39.39502938276026</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>40.02667337812482</v>
+        <v>40.17466647299105</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>36.80645318228419</v>
+        <v>36.90239206019287</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>38.15102677353031</v>
+        <v>38.22818589685835</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>34.61533395406622</v>
+        <v>34.6654103355848</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>32.85260500874072</v>
+        <v>32.84049651839558</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>32.22422557592355</v>
+        <v>32.18882097326964</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>31.55100271358243</v>
+        <v>31.37767704540116</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>37.6469384856977</v>
+        <v>37.71157430042929</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37.37804379209152</v>
+        <v>37.34800256955918</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34.91182585252713</v>
+        <v>34.95956203189865</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>35.35972872653316</v>
+        <v>35.39610867626651</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>42.48710611151223</v>
+        <v>42.49780493452386</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>42.81707159206852</v>
+        <v>43.01161875382302</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39.32911710432905</v>
+        <v>39.52429923359706</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40.5920000049674</v>
+        <v>40.61880774073804</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>38.78393188866983</v>
+        <v>38.75505996763506</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>36.5208710478089</v>
+        <v>36.64128419545681</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>35.91962919935168</v>
+        <v>35.8433484307409</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>34.97674461524519</v>
+        <v>34.80094920281154</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>40.19715998030944</v>
+        <v>40.21351591322722</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>39.72360675028884</v>
+        <v>39.5990350402792</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>37.22499369985243</v>
+        <v>37.17393835556476</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>37.46053408966958</v>
+        <v>37.39172272062341</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>37.73857720487401</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>38.61821030618563</v>
+        <v>38.61821030618564</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>40.16952513340949</v>
+        <v>40.23309519744002</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>40.08999007797257</v>
+        <v>40.08707331093855</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>38.78218931363156</v>
+        <v>38.8709113085666</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>39.77837572862279</v>
+        <v>39.83960724519556</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>35.52030507286809</v>
+        <v>35.39463566997165</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>34.16215869146875</v>
+        <v>34.2355754915677</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>33.1926974398055</v>
+        <v>33.4340841756115</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>34.71370724335714</v>
+        <v>34.63041832120318</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>39.01380668780291</v>
+        <v>39.02851928484498</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>38.09984326343168</v>
+        <v>38.01481963201317</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>36.8595468987805</v>
+        <v>36.911017174373</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>37.9198987296722</v>
+        <v>37.94785900048557</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>41.80689245889369</v>
+        <v>41.78157903721305</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>42.05934389664321</v>
+        <v>41.91737662185261</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>40.92877844430335</v>
+        <v>40.93817537260608</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>41.55751279909201</v>
+        <v>41.56160393772402</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>38.16613870662714</v>
+        <v>38.12512980328875</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>37.32297832785888</v>
+        <v>37.4060652614558</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>35.95921460243097</v>
+        <v>36.08648198078236</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>36.5137766679013</v>
+        <v>36.50526259161243</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>40.37916809522785</v>
+        <v>40.41229536656702</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>39.7757998203859</v>
+        <v>39.68472911220988</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>38.54646355631967</v>
+        <v>38.56189257352983</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>39.25353376065725</v>
+        <v>39.22481796750525</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>39.8263738156144</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39.87328432288326</v>
+        <v>39.87328432288327</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>37.21183937513215</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>40.7472308619841</v>
+        <v>40.72637985582232</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>40.43575736927152</v>
+        <v>40.36192769818908</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>38.71002961658846</v>
+        <v>38.77808236078033</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39.09146799339091</v>
+        <v>39.20707265588047</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>35.94877836841059</v>
+        <v>36.0296793376408</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>35.06957740948241</v>
+        <v>35.10900262627403</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>34.07402146380271</v>
+        <v>34.11771972302092</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>35.66397548554374</v>
+        <v>35.65634761837172</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>39.37313963654531</v>
+        <v>39.31819308750424</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>38.60045229701878</v>
+        <v>38.59556191158855</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37.2866527923119</v>
+        <v>37.22146119013568</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>37.82873397404776</v>
+        <v>37.79358999867501</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>42.06586525014876</v>
+        <v>41.99310012783557</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>42.1497258533437</v>
+        <v>41.96007974830355</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>40.82053832114237</v>
+        <v>40.84412528798038</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40.58656615945179</v>
+        <v>40.73134287283319</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>38.53968148167341</v>
+        <v>38.55442451657855</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>37.61219434647267</v>
+        <v>37.53919688121509</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>36.42911848611327</v>
+        <v>36.47424967964896</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>37.0418742812224</v>
+        <v>37.02851596486561</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>40.63339717887926</v>
+        <v>40.58791663501767</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>40.03843960923247</v>
+        <v>39.96901313836143</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>38.91951001884182</v>
+        <v>38.84492835282865</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>38.89675076297307</v>
+        <v>38.88270441351486</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>36.06995579772673</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>35.07336019146762</v>
+        <v>35.07336019146764</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>40.15062645608526</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>39.81455624706688</v>
+        <v>39.84501246633767</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>40.39090849057999</v>
+        <v>40.50886035459143</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>38.43109985826129</v>
+        <v>38.41546442114863</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>38.3027349028312</v>
+        <v>38.35932778704151</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>37.0413926949451</v>
+        <v>37.00193896607463</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>35.30755689828671</v>
+        <v>35.44351110970081</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>34.34232118259806</v>
+        <v>34.4975814958301</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>34.21176870320612</v>
+        <v>34.11644794449784</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>39.2847699927248</v>
+        <v>39.18941240874678</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>38.8214958257239</v>
+        <v>38.85947686445889</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37.14579905213373</v>
+        <v>37.0903064466268</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>36.78976318353229</v>
+        <v>36.68524013686151</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>42.28143191983745</v>
+        <v>42.43111246420595</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>42.68876794315413</v>
+        <v>42.80026447380048</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>41.09156785190267</v>
+        <v>40.99088715897368</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>40.11766691543363</v>
+        <v>40.15982387976277</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>39.73583469845572</v>
+        <v>39.67593240429408</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>38.16381446138775</v>
+        <v>38.11948376480975</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>37.86079298301964</v>
+        <v>37.89704766696554</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>36.00553939468169</v>
+        <v>35.88552863267521</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>41.16567155928441</v>
+        <v>41.15719491229613</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>40.61686581905467</v>
+        <v>40.63302471202513</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>39.43059619761544</v>
+        <v>39.26617356676648</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>38.06908567036847</v>
+        <v>38.03468261659603</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>34.91270506454786</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>35.44403492331546</v>
+        <v>35.44403492331545</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>39.75227997876372</v>
@@ -1237,7 +1237,7 @@
         <v>37.53922384391244</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>37.93603656778573</v>
+        <v>37.93603656778574</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>40.68972734609083</v>
+        <v>40.67201353248853</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>40.75302291613725</v>
+        <v>40.77336680247254</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>38.9005488539422</v>
+        <v>38.88394577353625</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>39.47008820961396</v>
+        <v>39.4350155774729</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>36.41238316950155</v>
+        <v>36.44428349382711</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>35.13559312327555</v>
+        <v>35.06011933925883</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>34.18364955496239</v>
+        <v>34.08957683490197</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>34.99154336279307</v>
+        <v>34.91808649903355</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>39.30283090090082</v>
+        <v>39.31330132336864</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38.63935827464412</v>
+        <v>38.68115042149385</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37.05877185828798</v>
+        <v>37.07833674502789</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>37.59993607001469</v>
+        <v>37.59606676755433</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>41.5919624942411</v>
+        <v>41.62310396614382</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>41.73756306877899</v>
+        <v>41.79253191880456</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>40.07886364182713</v>
+        <v>40.03993975416065</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>40.33670006859048</v>
+        <v>40.3273760801172</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>37.9259010390822</v>
+        <v>37.99358254096052</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>36.70996387426823</v>
+        <v>36.58792144935524</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>35.61226896322137</v>
+        <v>35.63480011894631</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>35.89700491902645</v>
+        <v>35.90326152657342</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>40.15071164367153</v>
+        <v>40.12673796099789</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>39.56196742756095</v>
+        <v>39.57439073322482</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>37.98286878217377</v>
+        <v>38.02326105517072</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>38.2363747561189</v>
+        <v>38.26921484784823</v>
       </c>
     </row>
     <row r="19">
